--- a/biology/Zoologie/Bihoreau_violacé/Bihoreau_violacé.xlsx
+++ b/biology/Zoologie/Bihoreau_violacé/Bihoreau_violacé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bihoreau_violac%C3%A9</t>
+          <t>Bihoreau_violacé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nyctanassa violacea
 Le Bihoreau violacé (Nyctanassa violacea) ou bihoreau à calotte jaune, est une espèce d'oiseaux échassiers de la famille des Ardeidae. C'est désormais la seule espèce représentante du genre Nyctanassa.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bihoreau_violac%C3%A9</t>
+          <t>Bihoreau_violacé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 61 cm de longueur. Il se distingue du bihoreau gris notamment par son bec plus fort et ses pattes plus longues très visibles en vol. L'adulte présente un plumage essentiellement gris marqué de noir avec la tête portant des bandes blanches et noires et ornée de fines aigrettes. Les pattes sont jaunes. L'immature est brun ponctué de blanc.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bihoreau_violac%C3%A9</t>
+          <t>Bihoreau_violacé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple l'est des États-Unis et le littoral du continent américain.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bihoreau_violac%C3%A9</t>
+          <t>Bihoreau_violacé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente les rivières, les mangroves et les littoraux.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bihoreau_violac%C3%A9</t>
+          <t>Bihoreau_violacé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est surtout nocturne.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bihoreau_violac%C3%A9</t>
+          <t>Bihoreau_violacé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des cinq sous-espèces suivantes (ordre phylogénique) :
 N. v. violacea (Linnaeus, 1758) : de la moitié est des États-Unis à l'est du Mexique et du Costa Rica ;
